--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2281366.017493885</v>
+        <v>2420519.358173606</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954775</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083135</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4898619.239256191</v>
+        <v>5354063.810008141</v>
       </c>
     </row>
     <row r="11">
@@ -659,19 +661,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>32.36127543482664</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>41.13782684532274</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>116.0434079398612</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>79.48721550632655</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
@@ -908,10 +910,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>275.0492858449802</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -950,16 +952,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>98.80642520464635</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1054,19 +1056,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>122.639117079891</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1102,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>33.71574161314881</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,25 +1135,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>272.6739844253057</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>206.6769876894562</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>4.203262463343094</v>
@@ -1297,13 +1299,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1342,10 +1344,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>131.996999652747</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>170.0689368712253</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314423</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.8153550780014</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.12288071619588</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1533,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>2.292363805516792</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978643</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>35.20092700998372</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>260.5946181094407</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>9.929426374353282e-13</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1774,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="G16" t="n">
-        <v>145.6160698088849</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1850,7 +1852,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1901,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2008,7 +2010,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>7.264602967361666</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2144,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>99.68042330889634</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>184.7284552769299</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2713,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>50.38971918733571</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3013,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>209.985159478203</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>159.9075995904315</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>173.1284582071241</v>
       </c>
     </row>
     <row r="35">
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H37" t="n">
-        <v>108.5103196251633</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3512,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3667,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117665</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3679,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>138.0675907704043</v>
+        <v>125.171654445488</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>215.3821362116102</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3901,22 +3903,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>141.3509401177976</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551371</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>152.6666278136098</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4147,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>73.01514676193507</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1786.86986531245</v>
+        <v>557.9336779278854</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.727392495873</v>
+        <v>523.8316091517128</v>
       </c>
       <c r="D2" t="n">
-        <v>912.8176076703178</v>
+        <v>491.9622283665614</v>
       </c>
       <c r="E2" t="n">
-        <v>479.0428628286129</v>
+        <v>462.2278875652606</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>1375.081325612185</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2637.372669426552</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>2637.372669426552</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>2637.372669426552</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>2637.372669426552</v>
+        <v>1030.847379071119</v>
       </c>
       <c r="W2" t="n">
-        <v>2232.517214837585</v>
+        <v>625.9919244821526</v>
       </c>
       <c r="X2" t="n">
-        <v>2217.4151554573</v>
+        <v>584.4385640323317</v>
       </c>
       <c r="Y2" t="n">
-        <v>1809.129031756954</v>
+        <v>580.1928443723891</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>515.0619848335836</v>
+        <v>437.0247332457074</v>
       </c>
       <c r="O3" t="n">
-        <v>515.0619848335836</v>
+        <v>857.0776321906106</v>
       </c>
       <c r="P3" t="n">
-        <v>1175.902039375362</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516122</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="C4" t="n">
-        <v>741.4772326516122</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="D4" t="n">
-        <v>741.4772326516122</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>761.8145120199619</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1211.772498283812</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1211.772498283812</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056491</v>
+        <v>966.3807436172247</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705994</v>
+        <v>966.3807436172247</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1256.616618691218</v>
+        <v>863.5525504725379</v>
       </c>
       <c r="C5" t="n">
-        <v>818.474145874641</v>
+        <v>425.4100776559612</v>
       </c>
       <c r="D5" t="n">
-        <v>786.6047650894895</v>
+        <v>393.5406968708098</v>
       </c>
       <c r="E5" t="n">
-        <v>756.8704242881888</v>
+        <v>363.806356069509</v>
       </c>
       <c r="F5" t="n">
-        <v>733.0433987378007</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>331.6455673610645</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2118.095758627044</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.11942280532</v>
+        <v>2118.095758627044</v>
       </c>
       <c r="W5" t="n">
-        <v>1702.263968216353</v>
+        <v>2117.280708078481</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.161908836068</v>
+        <v>1698.138244657792</v>
       </c>
       <c r="Y5" t="n">
-        <v>1278.875785135721</v>
+        <v>1289.852120957446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>431.6596472970924</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741.4772326516127</v>
+        <v>963.6125544028811</v>
       </c>
       <c r="C7" t="n">
-        <v>741.4772326516127</v>
+        <v>791.050842886106</v>
       </c>
       <c r="D7" t="n">
-        <v>575.5992398531354</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>405.8412361038726</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>266.2978593068779</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>684.5077410748389</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2466.145203519477</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2220.265757097933</v>
       </c>
       <c r="U7" t="n">
-        <v>1965.089189266357</v>
+        <v>1941.832756351038</v>
       </c>
       <c r="V7" t="n">
-        <v>1678.133681136788</v>
+        <v>1654.877248221468</v>
       </c>
       <c r="W7" t="n">
-        <v>1406.107276723079</v>
+        <v>1382.85084380776</v>
       </c>
       <c r="X7" t="n">
-        <v>1160.715522056492</v>
+        <v>1382.85084380776</v>
       </c>
       <c r="Y7" t="n">
-        <v>933.2958513705998</v>
+        <v>1155.431173121868</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.879325414605</v>
+        <v>2076.000019869234</v>
       </c>
       <c r="C8" t="n">
-        <v>1481.736852598028</v>
+        <v>2041.897951093061</v>
       </c>
       <c r="D8" t="n">
-        <v>1045.827067772473</v>
+        <v>1605.988166267505</v>
       </c>
       <c r="E8" t="n">
-        <v>770.3988006762045</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F8" t="n">
-        <v>342.5313710854123</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4811,19 +4813,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>141.0418768474983</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>801.8819313892766</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4832,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2366.341725488303</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.341725488303</v>
+        <v>2118.422015902528</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.526674939741</v>
+        <v>2117.606965353965</v>
       </c>
       <c r="X8" t="n">
-        <v>1946.384211519051</v>
+        <v>2102.50490597368</v>
       </c>
       <c r="Y8" t="n">
-        <v>1942.138491859109</v>
+        <v>2098.259186313737</v>
       </c>
     </row>
     <row r="9">
@@ -4896,13 +4898,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>797.1100984170748</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>624.5483869002998</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4990,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2356.071333755254</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>988.928717136062</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2048.990862196082</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1610.848389379506</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1174.93860455395</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>1174.93860455395</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>747.0711749631577</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>345.6733435864215</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963767</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>56.12639965677763</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>56.12639965677763</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>750.6905954094008</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2502.600881895757</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2502.600881895757</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2502.600881895757</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2502.600881895757</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2083.458418475068</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.990862196082</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>56.12639965677763</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>750.6905954094008</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>907.6291872886236</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135.184560268662</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518869</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534096</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041469</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2672.786009559577</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2637.229517630301</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2358.796516883406</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>2071.841008753837</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1799.814604340128</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.422849673541</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.003178987649</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1193.405544278143</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>755.2630714615663</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>319.3532866360107</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677763</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677763</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677763</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>56.12639965677763</v>
+        <v>1134.430677610026</v>
       </c>
       <c r="M14" t="n">
-        <v>56.12639965677763</v>
+        <v>2291.478512820577</v>
       </c>
       <c r="N14" t="n">
-        <v>750.6905954094008</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O14" t="n">
-        <v>1445.254791162024</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P14" t="n">
-        <v>2139.818986914647</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772707</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.84757818374</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705114763051</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1619.705114763051</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>484.0630267508877</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
-        <v>1178.627222503511</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1116.680224495381</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>944.1185129786055</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>778.2405201801282</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>608.4825164308654</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>431.7754623926216</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2672.786009559577</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2426.906563138033</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2148.473562391138</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1861.518054261568</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1589.49164984786</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1344.099895181272</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1116.680224495381</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5549,16 +5551,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937629</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769878</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>451.8971520785105</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5671,52 +5673,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354682</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>463.5989800066038</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745649</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955478</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338904</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309246</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.50262887895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755402</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008507</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465229</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127501</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5756,22 +5758,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>475.2748675296863</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1632.322702740237</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2758.053686176684</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5792,10 +5794,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>4099.24040372068</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>4099.24040372068</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>2026.844126920461</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1754.817722506753</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1509.425967840165</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1282.006297154273</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6075,10 +6077,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3365.117609755799</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C25" t="n">
-        <v>3192.555898239023</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D25" t="n">
-        <v>3026.677905440546</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E25" t="n">
-        <v>2856.919901691283</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F25" t="n">
-        <v>2680.21284765304</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>2514.621572678867</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>4867.162567117437</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>4588.729566370543</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V25" t="n">
-        <v>4301.774058240973</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W25" t="n">
-        <v>4029.747653827265</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X25" t="n">
-        <v>3784.355899160677</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y25" t="n">
-        <v>3556.936228474786</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="26">
@@ -6227,19 +6229,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>306.120802776629</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4148.898600262674</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="L27" t="n">
-        <v>945.7774352703902</v>
+        <v>4099.24040372068</v>
       </c>
       <c r="M27" t="n">
-        <v>945.7774352703902</v>
+        <v>4099.24040372068</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>4099.24040372068</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2668.021743923745</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="29">
@@ -6464,25 +6466,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2769.623329187108</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N29" t="n">
-        <v>3895.354312623555</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>4875.533979193861</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4875.533979193861</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,22 +6545,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1737.537409152261</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1737.537409152261</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.537409152261</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1737.537409152261</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1737.537409152261</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.441008084184</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>842.8792965674086</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
         <v>842.8792965674086</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1242.860678770075</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1015.441008084184</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="O32" t="n">
-        <v>4440.279291740943</v>
+        <v>3749.802995757414</v>
       </c>
       <c r="P32" t="n">
-        <v>4440.279291740943</v>
+        <v>4578.11287059081</v>
       </c>
       <c r="Q32" t="n">
-        <v>4986.778077699538</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6783,10 +6785,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1056.803889081883</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>1056.803889081883</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N33" t="n">
         <v>1765.500601749588</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6895,13 +6897,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1565.470477009816</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1320.078722343228</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1092.659051657336</v>
+        <v>1034.697915286396</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>228.5247761102221</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>1303.584742363081</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2460.632577573632</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135278</v>
+        <v>3586.363561010079</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705584</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -6974,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7023,19 +7025,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1062.363260807472</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>889.8015492906967</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>723.9235564922194</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>554.1655527429566</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>377.4584987047128</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>211.8672237305405</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1726.993304878938</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1481.601550212351</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1254.181879526459</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7178,46 +7180,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7260,16 +7262,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1336.088111831086</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.9010479080736</v>
+        <v>1181.319000882657</v>
       </c>
       <c r="C40" t="n">
-        <v>750.3393363912985</v>
+        <v>1008.757289365882</v>
       </c>
       <c r="D40" t="n">
-        <v>584.4613435928212</v>
+        <v>842.879296567405</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7369,13 +7371,13 @@
         <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1587.53109197954</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="X40" t="n">
-        <v>1342.139337312952</v>
+        <v>1600.557290287536</v>
       </c>
       <c r="Y40" t="n">
-        <v>1114.719666627061</v>
+        <v>1373.137619601644</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1147.736370643971</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>709.5938978273939</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>273.6841130018384</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>273.6841130018384</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>491.3810871096955</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L41" t="n">
-        <v>1185.945282862318</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M41" t="n">
-        <v>1880.509478614941</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N41" t="n">
-        <v>1942.601722333201</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>2637.165918085824</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>2637.165918085824</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838881</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838881</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838881</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838881</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2401.464528249914</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>1982.322064829225</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1574.035941128878</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M42" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N42" t="n">
-        <v>750.6905954094004</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O42" t="n">
-        <v>1445.254791162023</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>765.6202370743899</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>593.0585255576149</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>450.2797981659001</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>450.2797981659001</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>450.2797981659001</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>284.6885231917278</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2267.665194436029</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>1989.232193689134</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1702.276685559565</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.250281145856</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1184.858526479269</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>957.4388557933771</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>494.2688724733543</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>56.12639965677761</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>56.12639965677761</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>56.12639965677761</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>56.12639965677761</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677761</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677761</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677761</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677761</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L44" t="n">
-        <v>56.12639965677761</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M44" t="n">
-        <v>750.6905954094004</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N44" t="n">
-        <v>750.6905954094004</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>1445.254791162023</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127229</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085824</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838881</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895756</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212773</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>1880.761629146599</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1475.906174557633</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>1056.763711136943</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>648.4775874365965</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056514</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J45" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K45" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L45" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M45" t="n">
-        <v>330.2377696303406</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N45" t="n">
-        <v>1024.801965382964</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O45" t="n">
-        <v>1719.366161135586</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P45" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>903.4437844817653</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>730.8820729649902</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>565.0040801665129</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>395.2460764172502</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>218.5390223790064</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G46" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677761</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.464539392603</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2651.368188264949</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2405.488741843405</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2127.05574109651</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1840.10023296694</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1568.073828553232</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1322.682073886644</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1095.262403200752</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7988,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078568</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>466.3240083888434</v>
+        <v>407.152590549595</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>385.0780411188034</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8459,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8474,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8544,16 +8546,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P9" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q9" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8693,19 +8695,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8775,19 +8777,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.5238301810331</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8930,22 +8932,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1042.595795292168</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
         <v>170.8626916697543</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>432.2592192869799</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9422,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9486,13 +9488,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9650,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9875,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>251.0005682471265</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9957,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9966,10 +9968,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10121,7 +10123,7 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>534.2310361852419</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>239.9071053991102</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10191,16 +10193,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,19 +10360,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>369.4697759546607</v>
       </c>
       <c r="R32" t="n">
-        <v>127.53932913075</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,13 +10433,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>715.8552653209142</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,16 +10597,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>979.9836670718064</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N36" t="n">
         <v>1246.290173293239</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10908,10 +10910,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>62.71943809925187</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11148,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097202</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>158.5238301810336</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,16 +11305,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>651.9316575406117</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11382,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>276.8801716904676</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>701.5799957097202</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23312,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>370.0803817471473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>208.2197249473456</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23501,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>168.8423792838471</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.63380825304883</v>
       </c>
       <c r="G16" t="n">
-        <v>18.31929241554568</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>160.7958207444084</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>90.22000922289675</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>90.92021546249583</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>107.2592358276476</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>32.95267764171868</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>109.3985407791399</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>52.01701577190872</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H37" t="n">
-        <v>29.99283294136595</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>131.2385495991671</v>
+        <v>144.1344859240834</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25634,19 +25636,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>208.2066190832741</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22.86827275269491</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>269.3699469664489</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26035,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>90.92021546249553</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H46" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>305124.9597271814</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>305124.9597271814</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201832</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201834</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201834</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>305124.9597271815</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>305124.9597271815</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>469128.9049041074</v>
+      </c>
+      <c r="C2" t="n">
         <v>469128.9049041075</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>469128.9049041076</v>
       </c>
-      <c r="D2" t="n">
-        <v>469128.9049041074</v>
-      </c>
       <c r="E2" t="n">
-        <v>305124.9597271816</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="F2" t="n">
-        <v>305124.9597271816</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="G2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="H2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="I2" t="n">
         <v>461000.3861201834</v>
@@ -26347,13 +26349,13 @@
         <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
+        <v>461000.3861201834</v>
+      </c>
+      <c r="O2" t="n">
+        <v>461000.3861201835</v>
+      </c>
+      <c r="P2" t="n">
         <v>461000.3861201833</v>
-      </c>
-      <c r="O2" t="n">
-        <v>305124.9597271816</v>
-      </c>
-      <c r="P2" t="n">
-        <v>305124.9597271815</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045616</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340729</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113504.4062182506</v>
+        <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>113504.4062182506</v>
+        <v>121997.5637970941</v>
       </c>
       <c r="D4" t="n">
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>533.6918268872985</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="F4" t="n">
-        <v>533.6918268872984</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907825309</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907825455</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
         <v>806.3323907826023</v>
@@ -26454,10 +26456,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>533.6918268873699</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="P4" t="n">
-        <v>533.6918268873698</v>
+        <v>806.3323907826023</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915099</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915098</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57712.27554005435</v>
+        <v>98344.72283741535</v>
       </c>
       <c r="C6" t="n">
-        <v>281411.9741240992</v>
+        <v>208587.359403995</v>
       </c>
       <c r="D6" t="n">
-        <v>281411.9741240991</v>
+        <v>269884.3785741163</v>
       </c>
       <c r="E6" t="n">
-        <v>251764.2075606872</v>
+        <v>200120.7059025586</v>
       </c>
       <c r="F6" t="n">
-        <v>261935.2041611433</v>
+        <v>382475.8151236082</v>
       </c>
       <c r="G6" t="n">
-        <v>224416.338177499</v>
+        <v>382475.8151236082</v>
       </c>
       <c r="H6" t="n">
-        <v>382475.8151236083</v>
+        <v>382475.8151236082</v>
       </c>
       <c r="I6" t="n">
         <v>382475.8151236083</v>
       </c>
       <c r="J6" t="n">
-        <v>207824.4664059021</v>
+        <v>271461.349778618</v>
       </c>
       <c r="K6" t="n">
+        <v>329429.9604848359</v>
+      </c>
+      <c r="L6" t="n">
+        <v>373083.5133969858</v>
+      </c>
+      <c r="M6" t="n">
+        <v>230275.6441856205</v>
+      </c>
+      <c r="N6" t="n">
         <v>382475.8151236083</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>382475.8151236083</v>
+      </c>
+      <c r="P6" t="n">
         <v>382475.8151236082</v>
-      </c>
-      <c r="M6" t="n">
-        <v>373986.7334202674</v>
-      </c>
-      <c r="N6" t="n">
-        <v>382475.8151236082</v>
-      </c>
-      <c r="O6" t="n">
-        <v>261935.2041611432</v>
-      </c>
-      <c r="P6" t="n">
-        <v>261935.2041611432</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097202</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186325</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>50.45407964317472</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>373.8132119411596</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>52.01701577190894</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>204.5987375419473</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>11.18956716623569</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>157.8236544515069</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>52.30086641797035</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>123.9332134018345</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>156.763012967982</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>152.3137928760555</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28017,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28062,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>111.4236523045822</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>55.07653710780747</v>
       </c>
     </row>
     <row r="11">
@@ -28257,7 +28259,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.348808877463172e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28345,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-2.597614449615361e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-9.929426374353282e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.469477151088676e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28743,7 +28745,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.261205188816295e-12</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28864,7 +28866,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -34708,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078568</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>585.1784344521125</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>466.3240083888434</v>
+        <v>407.152590549595</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>512.4570950335019</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>385.0780411188034</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35179,10 +35181,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>88.52591951400984</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35194,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35264,16 +35266,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P9" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P9" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q9" t="n">
-        <v>345.0097498941943</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35413,25 +35415,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>651.931657540612</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1015.482873487266</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>158.5238301810331</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,25 +35652,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1042.595795292168</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097205</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>502.370637546644</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>432.2592192869799</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>701.5799957097204</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,16 +35977,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>51.29797569827247</v>
       </c>
       <c r="P18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743907939</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36050,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36124,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>376.7818457160674</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36142,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119496</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>205.9191540463125</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>251.0005682471265</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36677,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,10 +36688,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1024.042030119496</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36832,25 +36834,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>534.2310361852419</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>239.9071053991102</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36911,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37075,22 +37077,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>369.4697759546607</v>
       </c>
       <c r="R32" t="n">
-        <v>127.53932913075</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N33" t="n">
-        <v>715.8552653209142</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>127.53932913075</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,16 +37317,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>979.9836670718064</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N36" t="n">
         <v>1246.290173293239</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37546,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="L41" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>62.71943809925187</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37868,16 +37870,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>701.5799957097202</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P42" t="n">
-        <v>158.5238301810336</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -38023,22 +38025,22 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097202</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>651.9316575406117</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>276.8801716904676</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>701.5799957097202</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>701.5799957097202</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2420519.358173606</v>
+        <v>2419994.175804575</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916856</v>
+        <v>278692.0725916864</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>29.82710861623427</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -667,19 +667,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>41.13782684532274</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>79.48721550632655</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>173.5591556145158</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
@@ -907,16 +907,16 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>353.3539312950919</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>98.80642520464635</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>414.9510387864824</v>
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>33.71574161314881</v>
+        <v>145.6280143194911</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>248.2979378436725</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>206.6769876894562</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1299,13 +1299,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>61.08641542222839</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1353,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.0689368712253</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1533,16 +1533,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>2.292363805516792</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>141.3509401177934</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244344</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1773,19 +1773,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>165.6137642219374</v>
       </c>
       <c r="F16" t="n">
-        <v>90.30617524481251</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791316482</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655129</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>5.990622819018522</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112166</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>99.68042330889634</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>184.7284552769299</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2715,7 +2715,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>50.38971918733571</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.1284582071241</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>94.21878984361635</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,7 +3514,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3559,7 +3559,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561536</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -3663,22 +3663,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>118.4105505036711</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117665</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3723,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>125.171654445488</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3745,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>173.7040795765152</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>82.14201637551371</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3997,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>167.0321597791019</v>
       </c>
       <c r="G46" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.9336779278854</v>
+        <v>1646.892207949976</v>
       </c>
       <c r="C2" t="n">
-        <v>523.8316091517128</v>
+        <v>1612.790139173803</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665614</v>
+        <v>1580.920758388652</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>1152.33908412592</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>724.4716545351282</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1030.847379071119</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>625.9919244821526</v>
+        <v>1696.368379531855</v>
       </c>
       <c r="X2" t="n">
-        <v>584.4385640323317</v>
+        <v>1681.26632015157</v>
       </c>
       <c r="Y2" t="n">
-        <v>580.1928443723891</v>
+        <v>1677.020600491627</v>
       </c>
     </row>
     <row r="3">
@@ -4406,31 +4406,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="L3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="M3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="N3" t="n">
-        <v>437.0247332457074</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>857.0776321906106</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
         <v>1697.183430080417</v>
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4521,19 +4521,19 @@
         <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1013.629614209975</v>
       </c>
       <c r="V4" t="n">
-        <v>1211.772498283812</v>
+        <v>726.6741060804052</v>
       </c>
       <c r="W4" t="n">
-        <v>1211.772498283812</v>
+        <v>454.6477016666967</v>
       </c>
       <c r="X4" t="n">
-        <v>966.3807436172247</v>
+        <v>209.2559470001092</v>
       </c>
       <c r="Y4" t="n">
-        <v>966.3807436172247</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.5525504725379</v>
+        <v>904.4591712531732</v>
       </c>
       <c r="C5" t="n">
-        <v>425.4100776559612</v>
+        <v>870.3571024770006</v>
       </c>
       <c r="D5" t="n">
-        <v>393.5406968708098</v>
+        <v>838.4877216918492</v>
       </c>
       <c r="E5" t="n">
-        <v>363.806356069509</v>
+        <v>808.7533808905484</v>
       </c>
       <c r="F5" t="n">
-        <v>339.9793305191208</v>
+        <v>451.8302179662132</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233704</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947704</v>
+        <v>557.7649106726444</v>
       </c>
       <c r="M5" t="n">
-        <v>50.43238658947704</v>
+        <v>557.7649106726444</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726439</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720795</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657689</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530727</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U5" t="n">
-        <v>2118.095758627044</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="V5" t="n">
-        <v>2118.095758627044</v>
+        <v>2159.00237940768</v>
       </c>
       <c r="W5" t="n">
-        <v>2117.280708078481</v>
+        <v>1754.146924818713</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.138244657792</v>
+        <v>1335.004461398024</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.852120957446</v>
+        <v>926.7183376976769</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326457</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947704</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>50.43238658947704</v>
+        <v>348.297801884389</v>
       </c>
       <c r="K6" t="n">
-        <v>50.43238658947704</v>
+        <v>348.297801884389</v>
       </c>
       <c r="L6" t="n">
-        <v>50.43238658947704</v>
+        <v>348.297801884389</v>
       </c>
       <c r="M6" t="n">
-        <v>50.43238658947704</v>
+        <v>348.297801884389</v>
       </c>
       <c r="N6" t="n">
-        <v>50.43238658947704</v>
+        <v>348.297801884389</v>
       </c>
       <c r="O6" t="n">
-        <v>431.6596472970924</v>
+        <v>972.3985859291677</v>
       </c>
       <c r="P6" t="n">
-        <v>1055.760431341871</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.6125544028811</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>791.050842886106</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
         <v>791.050842886106</v>
@@ -4713,7 +4713,7 @@
         <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
         <v>278.9945101244272</v>
@@ -4722,55 +4722,55 @@
         <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947704</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068779</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748389</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473852</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>2466.145203519477</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="T7" t="n">
-        <v>2220.265757097933</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="U7" t="n">
-        <v>1941.832756351038</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1654.877248221468</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1382.85084380776</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1382.85084380776</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1155.431173121868</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2076.000019869234</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C8" t="n">
-        <v>2041.897951093061</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.988166267505</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>1172.213421425801</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4813,13 +4813,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>53.40121652862856</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.186649932281</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.422015902528</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>2117.606965353965</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>2102.50490597368</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.259186313737</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.1100984170748</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>624.5483869002998</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6703941018225</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2608.357376509985</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2362.477930088441</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2084.044929341546</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>988.928717136062</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5117,16 +5117,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
         <v>1107.588885023173</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1017.756527079655</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>845.1948155628801</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>496.4142387799059</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>496.4142387799059</v>
       </c>
       <c r="G13" t="n">
         <v>330.8229638057298</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.575145798642</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5284,25 +5284,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>1134.430677610026</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M14" t="n">
-        <v>2291.478512820577</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
         <v>5029.390139722817</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>1090.187678435283</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>917.625966918508</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>751.7479741200307</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>190.9207894961043</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5451,37 +5451,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338901</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309243</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173576</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471572</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2313.799635050028</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>2026.844126920458</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1754.81772250675</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1509.425967840162</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1282.00629715427</v>
       </c>
     </row>
     <row r="17">
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5554,13 +5554,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,22 +5591,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
         <v>1107.588885023173</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>286.091284287636</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134636</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5740,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5758,22 +5758,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>475.2748675296863</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740237</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2026.844126920461</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1754.817722506753</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1509.425967840165</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1282.006297154273</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2265.02878318778</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1978.07327505821</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1706.046870644502</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1460.655115977914</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1233.235445292023</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6229,19 +6229,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3449.802252060173</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3449.802252060173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3449.802252060173</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>4099.24040372068</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>4099.24040372068</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>4099.24040372068</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>5113.042013538981</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>5113.042013538981</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.0973401405612</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2668.021743923745</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2422.1422975022</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2143.709296755305</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1856.753788625736</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1584.727384212028</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1339.33562954544</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.915958859548</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,22 +6463,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M29" t="n">
-        <v>3603.973621145286</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P29" t="n">
         <v>5113.042013538981</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1612.575493976557</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>2769.623329187108</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3749.802995757414</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>4578.11287059081</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>842.8792965674086</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1034.697915286396</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6940,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>228.5247761102221</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1303.584742363081</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>2460.632577573632</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N35" t="n">
-        <v>3586.363561010079</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,28 +7013,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
         <v>793.2056155771595</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1336.088111831086</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882657</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365882</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D40" t="n">
-        <v>842.879296567405</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1600.557290287536</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.557290287536</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601644</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7399,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7414,49 +7414,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M41" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2543.461783934675</v>
       </c>
       <c r="U43" t="n">
-        <v>2013.948813008508</v>
+        <v>2265.02878318778</v>
       </c>
       <c r="V43" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W43" t="n">
-        <v>1454.96690046523</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
         <v>306.1208027766299</v>
@@ -7678,22 +7678,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
         <v>1107.588885023173</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>811.7546776883914</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C46" t="n">
-        <v>639.1929661716164</v>
+        <v>831.0115848906036</v>
       </c>
       <c r="D46" t="n">
-        <v>473.3149733731391</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="E46" t="n">
-        <v>303.5569696238763</v>
+        <v>665.1335920921263</v>
       </c>
       <c r="F46" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>407.152590549595</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -8081,7 +8081,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
@@ -8154,7 +8154,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8221,19 +8221,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335025</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335019</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.5472142772267</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.0780411188034</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.403831323837</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8528,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1042.595795292168</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -8944,7 +8944,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9239,16 +9239,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>376.7818457160674</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9424,7 +9424,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9652,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>251.0005682471265</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157522</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10123,19 +10123,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>534.2310361852419</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10369,7 +10369,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>369.4697759546607</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10600,7 +10600,7 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>103.979036059106</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.9268490649757</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>26.70948359397673</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>2.44665948983274</v>
       </c>
       <c r="F16" t="n">
-        <v>84.63380825304883</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.0953302292553</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>90.22000922289675</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>90.92021546249583</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>107.2592358276476</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>52.01701577190872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>69.71657238081426</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>52.42554389793625</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>144.1344859240834</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>69.71657238081409</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7.907823718759431</v>
       </c>
       <c r="G46" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201831</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201832</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>461000.3861201832</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461000.3861201833</v>
+        <v>461000.3861201834</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>469128.9049041074</v>
+        <v>469128.9049041075</v>
       </c>
       <c r="C2" t="n">
+        <v>469128.9049041076</v>
+      </c>
+      <c r="D2" t="n">
         <v>469128.9049041075</v>
       </c>
-      <c r="D2" t="n">
-        <v>469128.9049041076</v>
-      </c>
       <c r="E2" t="n">
-        <v>461000.3861201835</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="F2" t="n">
         <v>461000.3861201833</v>
@@ -26334,13 +26334,13 @@
         <v>461000.3861201833</v>
       </c>
       <c r="I2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="J2" t="n">
         <v>461000.3861201833</v>
       </c>
       <c r="K2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201833</v>
       </c>
       <c r="L2" t="n">
         <v>461000.3861201833</v>
@@ -26349,13 +26349,13 @@
         <v>461000.3861201833</v>
       </c>
       <c r="N2" t="n">
-        <v>461000.3861201834</v>
+        <v>461000.3861201835</v>
       </c>
       <c r="O2" t="n">
+        <v>461000.3861201833</v>
+      </c>
+      <c r="P2" t="n">
         <v>461000.3861201835</v>
-      </c>
-      <c r="P2" t="n">
-        <v>461000.3861201833</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501596</v>
+        <v>66587.76789501609</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998296</v>
+        <v>11527.59554998284</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877235</v>
+        <v>53045.85463877246</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622472</v>
+        <v>9392.301726622371</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26420,22 +26420,22 @@
         <v>169168.0932697598</v>
       </c>
       <c r="C4" t="n">
-        <v>121997.5637970941</v>
+        <v>121997.563797094</v>
       </c>
       <c r="D4" t="n">
         <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825509</v>
       </c>
       <c r="F4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825506</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907825509</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907825629</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
@@ -26450,7 +26450,7 @@
         <v>806.3323907826023</v>
       </c>
       <c r="M4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="N4" t="n">
         <v>806.3323907826023</v>
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800255</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98344.72283741535</v>
+        <v>98344.72283741547</v>
       </c>
       <c r="C6" t="n">
-        <v>208587.359403995</v>
+        <v>208587.3594039949</v>
       </c>
       <c r="D6" t="n">
         <v>269884.3785741163</v>
       </c>
       <c r="E6" t="n">
-        <v>200120.7059025586</v>
+        <v>200097.4815631759</v>
       </c>
       <c r="F6" t="n">
-        <v>382475.8151236082</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="G6" t="n">
-        <v>382475.8151236082</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="H6" t="n">
-        <v>382475.8151236082</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="I6" t="n">
-        <v>382475.8151236083</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="J6" t="n">
-        <v>271461.349778618</v>
+        <v>271438.1254392354</v>
       </c>
       <c r="K6" t="n">
-        <v>329429.9604848359</v>
+        <v>329406.7361454531</v>
       </c>
       <c r="L6" t="n">
-        <v>373083.5133969858</v>
+        <v>373060.2890576032</v>
       </c>
       <c r="M6" t="n">
-        <v>230275.6441856205</v>
+        <v>230252.4198462379</v>
       </c>
       <c r="N6" t="n">
-        <v>382475.8151236083</v>
+        <v>382452.5907842257</v>
       </c>
       <c r="O6" t="n">
-        <v>382475.8151236083</v>
+        <v>382452.5907842256</v>
       </c>
       <c r="P6" t="n">
-        <v>382475.8151236082</v>
+        <v>382452.5907842257</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.108974848359</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939362</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,10 +27038,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939362</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483586</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939402</v>
+        <v>37.11037423939362</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>392.2094661638244</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>373.8132119411596</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27545,19 +27545,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>204.5987375419473</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>51.58631836451698</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27627,16 +27627,16 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>70.23482399979241</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>157.8236544515069</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>123.9332134018345</v>
+        <v>12.02094069549224</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>185.4631102447384</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>152.3137928760555</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>96.56253959275492</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>55.07653710780747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28262,7 +28262,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28523,7 +28523,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-8.682195192673605e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N2" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
-      </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>407.152590549595</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
@@ -34801,7 +34801,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34865,16 +34865,16 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>310.9272166398487</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34941,19 +34941,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>512.4570950335025</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335019</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.5472142772267</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>385.0780411188034</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P6" t="n">
-        <v>630.404832368463</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q6" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.403831323837</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>585.1784344521125</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35248,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35652,7 +35652,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1042.595795292168</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35664,7 +35664,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35819,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512906</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>964.1848977889938</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35977,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>51.29797569827247</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>376.7818457160674</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36144,7 +36144,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36211,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>251.0005682471265</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
         <v>552.0189757157523</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36688,16 +36688,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1024.042030119496</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36843,13 +36843,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>534.2310361852419</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37089,7 +37089,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>369.4697759546607</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>127.53932913075</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37317,10 +37317,10 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>103.979036059106</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>433.7499898166689</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>205.9191540463134</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
